--- a/doc/01-software planning/dascombat-6301-Traceability_Matrix.xlsx
+++ b/doc/01-software planning/dascombat-6301-Traceability_Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="STM" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="78">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -279,13 +279,28 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOK - test missing</t>
+  </si>
+  <si>
+    <t>NOK - is not tested by the mentioned unit test, is it?</t>
+  </si>
+  <si>
+    <t>NOK should be "apply with new batch variable"?</t>
+  </si>
+  <si>
+    <t>NOK- test missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -350,6 +365,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -437,7 +458,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -470,22 +491,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -501,6 +511,20 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1014,144 +1038,144 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="122.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="122.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+    <row r="1" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>44188</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1180,25 +1204,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="31">
         <v>2</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1241,9 @@
       <c r="N11" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="P11" s="14" t="s">
         <v>72</v>
       </c>
@@ -1225,25 +1251,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" t="s">
         <v>21</v>
       </c>
@@ -1262,7 +1288,9 @@
       <c r="N12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="14"/>
+      <c r="O12" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="P12" s="19" t="s">
         <v>72</v>
       </c>
@@ -1270,25 +1298,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>3</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="21">
         <v>5</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1335,9 @@
       <c r="N13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="14"/>
+      <c r="O13" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="P13" s="19" t="s">
         <v>72</v>
       </c>
@@ -1315,25 +1345,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1382,9 @@
       <c r="N14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O14" s="14"/>
+      <c r="O14" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="P14" s="19" t="s">
         <v>72</v>
       </c>
@@ -1360,25 +1392,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +1429,9 @@
       <c r="N15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O15" s="14"/>
+      <c r="O15" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="P15" s="19" t="s">
         <v>72</v>
       </c>
@@ -1405,25 +1439,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" t="s">
         <v>21</v>
       </c>
@@ -1433,16 +1467,16 @@
       <c r="K16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="L16" s="18"/>
       <c r="M16" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="14"/>
+      <c r="O16" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="P16" s="19" t="s">
         <v>72</v>
       </c>
@@ -1450,25 +1484,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="12" t="s">
         <v>21</v>
       </c>
@@ -1478,16 +1512,16 @@
       <c r="K17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="L17" s="18"/>
       <c r="M17" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="14"/>
+      <c r="O17" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="P17" s="19" t="s">
         <v>72</v>
       </c>
@@ -1495,25 +1529,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="8" t="s">
         <v>21</v>
       </c>
@@ -1532,7 +1566,9 @@
       <c r="N18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="14"/>
+      <c r="O18" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="P18" s="19" t="s">
         <v>72</v>
       </c>
@@ -1540,25 +1576,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>14</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1613,9 @@
       <c r="N19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="P19" s="19" t="s">
         <v>72</v>
       </c>
@@ -1585,25 +1623,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1660,9 @@
       <c r="N20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="14"/>
+      <c r="O20" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="P20" s="19" t="s">
         <v>72</v>
       </c>
@@ -1630,25 +1670,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>16</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1667,7 +1707,9 @@
       <c r="N21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="14"/>
+      <c r="O21" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="P21" s="19" t="s">
         <v>72</v>
       </c>
@@ -1675,25 +1717,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1712,7 +1754,9 @@
       <c r="N22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="14"/>
+      <c r="O22" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="P22" s="19" t="s">
         <v>72</v>
       </c>
@@ -1720,25 +1764,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1801,9 @@
       <c r="N23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O23" s="14"/>
+      <c r="O23" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="P23" s="19" t="s">
         <v>72</v>
       </c>
@@ -1765,25 +1811,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>20</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="8" t="s">
         <v>21</v>
       </c>
@@ -1802,7 +1848,9 @@
       <c r="N24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O24" s="14"/>
+      <c r="O24" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="P24" s="19" t="s">
         <v>72</v>
       </c>
@@ -1810,25 +1858,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1838,8 +1886,8 @@
       <c r="K25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>69</v>
+      <c r="L25" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>72</v>
@@ -1847,7 +1895,9 @@
       <c r="N25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O25" s="14"/>
+      <c r="O25" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="P25" s="19" t="s">
         <v>72</v>
       </c>
@@ -1855,25 +1905,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="B26" s="20">
-        <v>22</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21" t="s">
+      <c r="B26" s="21">
+        <v>22</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="11" t="s">
         <v>21</v>
       </c>
@@ -1892,7 +1942,9 @@
       <c r="N26" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O26" s="14"/>
+      <c r="O26" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P26" s="19" t="s">
         <v>72</v>
       </c>
@@ -1900,25 +1952,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>24</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="21">
         <v>37</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1989,9 @@
       <c r="N27" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O27" s="14"/>
+      <c r="O27" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="P27" s="19" t="s">
         <v>72</v>
       </c>
@@ -1945,25 +1999,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="21">
         <v>38</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="8" t="s">
         <v>21</v>
       </c>
@@ -1982,7 +2036,9 @@
       <c r="N28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O28" s="14"/>
+      <c r="O28" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P28" s="19" t="s">
         <v>72</v>
       </c>
@@ -1990,25 +2046,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>26</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="21">
         <v>40</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="8" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2083,9 @@
       <c r="N29" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O29" s="14"/>
+      <c r="O29" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P29" s="19" t="s">
         <v>72</v>
       </c>
@@ -2035,25 +2093,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>27</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="21">
         <v>42</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="8" t="s">
         <v>21</v>
       </c>
@@ -2072,7 +2130,9 @@
       <c r="N30" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O30" s="14"/>
+      <c r="O30" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P30" s="19" t="s">
         <v>72</v>
       </c>
@@ -2080,25 +2140,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>28</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="21">
         <v>60</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="8" t="s">
         <v>21</v>
       </c>
@@ -2117,7 +2177,9 @@
       <c r="N31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O31" s="14"/>
+      <c r="O31" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="P31" s="19" t="s">
         <v>72</v>
       </c>
@@ -2125,25 +2187,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>29</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="21">
         <v>61</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="8" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2224,9 @@
       <c r="N32" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O32" s="14"/>
+      <c r="O32" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="P32" s="19" t="s">
         <v>72</v>
       </c>
@@ -2170,25 +2234,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>30</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="21">
         <v>70</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="11" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2271,9 @@
       <c r="N33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="14"/>
+      <c r="O33" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="P33" s="19" t="s">
         <v>72</v>
       </c>
@@ -2215,11 +2281,76 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
@@ -2236,71 +2367,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="40" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/doc/01-software planning/dascombat-6301-Traceability_Matrix.xlsx
+++ b/doc/01-software planning/dascombat-6301-Traceability_Matrix.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="STM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STM!$A$10:$P$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STM!$A$10:$P$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="67">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -148,12 +148,6 @@
     <t>011A</t>
   </si>
   <si>
-    <t>014A1</t>
-  </si>
-  <si>
-    <t>014A2</t>
-  </si>
-  <si>
     <t>017A1</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
     <t>SP calculates a batch correction i.e. applies a model</t>
   </si>
   <si>
-    <t>Table 1 is called “data table” and defined in req21A1</t>
-  </si>
-  <si>
-    <t>Table 2 is called “aFITmodel data table” and defined in req21A2</t>
-  </si>
-  <si>
     <t>The corrected output  table is the same format as the input data table (see req 021A)</t>
   </si>
   <si>
@@ -211,18 +199,9 @@
     <t>The batch model is applied to data from batches included in the fit</t>
   </si>
   <si>
-    <t>Data is as an annotated data frame represents a peptide measurement. For each row the following columns are included:</t>
-  </si>
-  <si>
     <t>Any exception returns an informational error message to the DAS-COMBAT via the R PACKAGE ENVIRONMENT.</t>
   </si>
   <si>
-    <t>Any exception will result in the execution of the DAS-COMBAT being stopped and the error is non-recoverable.</t>
-  </si>
-  <si>
-    <t>Check that the column names of the input data are equal to that defined in req 21A1 and 21A2</t>
-  </si>
-  <si>
     <t>For “fit” with REF (see req18A13, req18A14) the value of REF must occur in batchFactor</t>
   </si>
   <si>
@@ -247,19 +226,6 @@
     <t>018A16</t>
   </si>
   <si>
-    <t>021A1</t>
-  </si>
-  <si>
-    <t>021A2</t>
-  </si>
-  <si>
-    <t>DAS-COMBAT receives pre-processed kinase activity profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data is retrieved as a FitModel list containing the elements:overall mean,overall scale, mean_per_batch,scale_per_batch, batchID
-</t>
-  </si>
-  <si>
     <t>Complete arrays only. The DAS-COMBAT checks if there are any missing values</t>
   </si>
   <si>
@@ -293,18 +259,25 @@
     <t>NOK should be "apply with new batch variable"?</t>
   </si>
   <si>
-    <t>NOK- test missing</t>
+    <t>DAS-COMBAT receives a matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -455,76 +428,73 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -658,8 +628,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5459850</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>79350</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>117450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -709,7 +679,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1035,147 +1005,147 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="122.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="122.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
-    <col min="18" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+    <row r="1" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="D2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="D3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="31">
         <v>44188</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>26</v>
@@ -1201,23 +1171,23 @@
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <v>2</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="16" t="s">
-        <v>64</v>
+      <c r="F11" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>20</v>
@@ -1230,33 +1200,33 @@
         <v>22</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22" t="s">
@@ -1264,7 +1234,7 @@
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>24</v>
@@ -1277,28 +1247,28 @@
         <v>22</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -1311,7 +1281,7 @@
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>24</v>
@@ -1324,28 +1294,28 @@
         <v>22</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>4</v>
       </c>
@@ -1358,7 +1328,7 @@
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>24</v>
@@ -1371,33 +1341,33 @@
         <v>22</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>5</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
@@ -1405,7 +1375,7 @@
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>24</v>
@@ -1418,30 +1388,30 @@
         <v>22</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>29</v>
@@ -1452,44 +1422,46 @@
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" t="s">
+      <c r="I16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
@@ -1497,44 +1469,46 @@
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
@@ -1542,46 +1516,46 @@
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22" t="s">
@@ -1589,46 +1563,46 @@
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="22"/>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="22" t="s">
@@ -1636,46 +1610,46 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22" t="s">
@@ -1683,46 +1657,46 @@
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="22"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <v>18</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="21">
+        <v>22</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22" t="s">
@@ -1730,46 +1704,46 @@
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="22"/>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>24</v>
+      </c>
+      <c r="B23" s="21">
         <v>37</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22" t="s">
@@ -1777,10 +1751,10 @@
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="8" t="s">
@@ -1790,33 +1764,33 @@
         <v>22</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>20</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="21">
+        <v>40</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22" t="s">
@@ -1824,7 +1798,7 @@
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>24</v>
@@ -1837,80 +1811,80 @@
         <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>21</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="21">
+        <v>60</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="17" t="s">
-        <v>65</v>
+      <c r="F25" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B26" s="21">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="22" t="s">
@@ -1918,46 +1892,46 @@
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="22"/>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" s="21">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="22" t="s">
@@ -1965,357 +1939,81 @@
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>25</v>
-      </c>
-      <c r="B28" s="21">
-        <v>38</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>26</v>
-      </c>
-      <c r="B29" s="21">
-        <v>40</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>27</v>
-      </c>
-      <c r="B30" s="21">
-        <v>42</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>28</v>
-      </c>
-      <c r="B31" s="21">
-        <v>60</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>29</v>
-      </c>
-      <c r="B32" s="21">
-        <v>61</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>30</v>
-      </c>
-      <c r="B33" s="21">
-        <v>70</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N34" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
+  <mergeCells count="63">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
@@ -2325,48 +2023,24 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="40" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
